--- a/set_up_grasp_models/tests/test_files/test_check_models/model_v1_base_fixed.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_check_models/model_v1_base_fixed.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="274">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -45,7 +45,7 @@
     <t xml:space="preserve">Sampling mode (GRASP or rejection)</t>
   </si>
   <si>
-    <t xml:space="preserve">ORACLE</t>
+    <t xml:space="preserve">GRASP</t>
   </si>
   <si>
     <t xml:space="preserve">NLP solver (NLOPT or FMINCON (default))</t>
@@ -60,6 +60,15 @@
     <t xml:space="preserve">gurobi</t>
   </si>
   <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
   </si>
   <si>
@@ -627,28 +636,25 @@
     <t xml:space="preserve">max (M)</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluxes (umol/gdcw/h)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_std</t>
+    <t xml:space="preserve">reaction ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_mean (mmol/L/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_std (mmol/L/h)</t>
   </si>
   <si>
     <t xml:space="preserve">enzyme/rxn</t>
   </si>
   <si>
-    <t xml:space="preserve">MBo10_LB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_meas2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_UB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction ID</t>
+    <t xml:space="preserve">lower_bound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upper_bound</t>
   </si>
   <si>
     <t xml:space="preserve">kinetic mechanism</t>
@@ -952,7 +958,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -963,6 +969,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -987,32 +997,31 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1048576"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1057,29 +1066,29 @@
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>1</v>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -1087,15 +1096,15 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1</v>
@@ -1103,14 +1112,28 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1123,38 +1146,35 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I35" activeCellId="0" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1168,7 +1188,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1182,7 +1202,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -1196,7 +1216,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1210,7 +1230,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1224,7 +1244,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -1238,7 +1258,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -1252,7 +1272,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -1266,7 +1286,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -1280,7 +1300,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -1294,7 +1314,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1308,7 +1328,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -1322,7 +1342,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -1336,7 +1356,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -1350,7 +1370,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -1364,7 +1384,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -1378,7 +1398,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -1392,7 +1412,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -1406,7 +1426,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -1420,7 +1440,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -1434,7 +1454,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -1448,7 +1468,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -1462,7 +1482,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -1476,7 +1496,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -1490,7 +1510,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -1504,7 +1524,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -1518,7 +1538,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -1532,7 +1552,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -1546,7 +1566,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -1560,7 +1580,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -1574,7 +1594,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -1588,7 +1608,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -1602,7 +1622,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -1626,38 +1646,35 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F41" activeCellId="0" sqref="F41"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1671,7 +1688,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1685,7 +1702,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -1699,7 +1716,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1713,7 +1730,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1727,7 +1744,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -1741,7 +1758,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -1755,7 +1772,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -1769,7 +1786,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -1783,7 +1800,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -1797,7 +1814,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1811,7 +1828,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -1825,7 +1842,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -1839,7 +1856,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -1853,7 +1870,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -1867,7 +1884,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -1881,7 +1898,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -1895,7 +1912,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -1909,7 +1926,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -1923,7 +1940,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -1937,7 +1954,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -1951,7 +1968,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -1965,7 +1982,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -1979,7 +1996,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -1993,7 +2010,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -2007,7 +2024,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -2021,7 +2038,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -2035,7 +2052,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -2049,7 +2066,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -2063,7 +2080,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -2077,7 +2094,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -2091,7 +2108,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -2105,7 +2122,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -2119,7 +2136,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -2133,7 +2150,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -2147,7 +2164,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -2161,7 +2178,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -2175,7 +2192,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -2189,7 +2206,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -2203,7 +2220,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -2227,307 +2244,307 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="BB1" activeCellId="0" sqref="BB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="20.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="20.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="39.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="6.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="5.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="4.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="5.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="4.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="5.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="10.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="14.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="4" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="20.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="20.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="39.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="6.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="5.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="5" width="4.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="5" width="5.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="5" width="4.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="5" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="5" width="10.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="5" width="14.15"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="12" style="5" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="A1" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
+      <c r="I1" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>216</v>
+      <c r="A2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>218</v>
       </c>
       <c r="D2" s="0"/>
       <c r="E2" s="0"/>
       <c r="F2" s="0"/>
       <c r="H2" s="0"/>
       <c r="I2" s="0"/>
-      <c r="J2" s="7" t="n">
+      <c r="J2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
       <c r="N2" s="0"/>
       <c r="O2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>218</v>
+      <c r="A3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="D3" s="0"/>
       <c r="E3" s="0"/>
       <c r="F3" s="0"/>
       <c r="H3" s="0"/>
       <c r="I3" s="0"/>
-      <c r="J3" s="7" t="n">
+      <c r="J3" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K3" s="0"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
       <c r="N3" s="0"/>
       <c r="O3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>220</v>
+      <c r="A4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>222</v>
       </c>
       <c r="D4" s="0"/>
       <c r="E4" s="0"/>
       <c r="F4" s="0"/>
       <c r="H4" s="0"/>
       <c r="I4" s="0"/>
-      <c r="J4" s="7" t="n">
+      <c r="J4" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K4" s="0"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
       <c r="N4" s="0"/>
       <c r="O4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>221</v>
+      <c r="A5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>223</v>
       </c>
       <c r="D5" s="0"/>
       <c r="E5" s="0"/>
       <c r="F5" s="0"/>
       <c r="H5" s="0"/>
       <c r="I5" s="0"/>
-      <c r="J5" s="7" t="n">
+      <c r="J5" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
       <c r="N5" s="0"/>
       <c r="O5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>223</v>
+      <c r="A6" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="D6" s="0"/>
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
       <c r="H6" s="0"/>
       <c r="I6" s="0"/>
-      <c r="J6" s="7" t="n">
+      <c r="J6" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="0"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
       <c r="N6" s="0"/>
       <c r="O6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>224</v>
+      <c r="A7" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>226</v>
       </c>
       <c r="D7" s="0"/>
-      <c r="E7" s="7" t="s">
-        <v>21</v>
+      <c r="E7" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="F7" s="0"/>
       <c r="H7" s="0"/>
-      <c r="I7" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="J7" s="7" t="n">
+      <c r="I7" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="J7" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K7" s="0"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
       <c r="N7" s="0"/>
       <c r="O7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>226</v>
+      <c r="A8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>228</v>
       </c>
       <c r="D8" s="0"/>
       <c r="E8" s="0"/>
       <c r="F8" s="0"/>
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
-      <c r="J8" s="7" t="n">
+      <c r="J8" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
       <c r="N8" s="0"/>
       <c r="O8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>227</v>
+      <c r="A9" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
       <c r="H9" s="0"/>
       <c r="I9" s="0"/>
-      <c r="J9" s="7" t="n">
+      <c r="J9" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K9" s="0"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
       <c r="N9" s="0"/>
       <c r="O9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>229</v>
+      <c r="A10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>231</v>
       </c>
       <c r="D10" s="0"/>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
-      <c r="J10" s="7" t="n">
+      <c r="J10" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K10" s="0"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
       <c r="N10" s="0"/>
-      <c r="O10" s="7"/>
+      <c r="O10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="A11" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>232</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>234</v>
       </c>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
       <c r="H11" s="0"/>
       <c r="I11" s="0"/>
-      <c r="J11" s="7" t="n">
+      <c r="J11" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K11" s="0"/>
@@ -2537,131 +2554,131 @@
       <c r="O11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="A12" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>232</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>234</v>
       </c>
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
       <c r="H12" s="0"/>
       <c r="I12" s="0"/>
-      <c r="J12" s="7" t="n">
+      <c r="J12" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K12" s="0"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
       <c r="N12" s="0"/>
       <c r="O12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>235</v>
+      <c r="A13" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>237</v>
       </c>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
       <c r="F13" s="0"/>
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
-      <c r="J13" s="7" t="n">
+      <c r="J13" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K13" s="0"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
       <c r="N13" s="0"/>
       <c r="O13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>237</v>
+      <c r="A14" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>239</v>
       </c>
       <c r="D14" s="0"/>
-      <c r="E14" s="7" t="s">
-        <v>238</v>
+      <c r="E14" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="F14" s="0"/>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
-      <c r="J14" s="7" t="n">
+      <c r="J14" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
       <c r="N14" s="0"/>
-      <c r="O14" s="7"/>
+      <c r="O14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>239</v>
+      <c r="A15" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>241</v>
       </c>
       <c r="D15" s="0"/>
-      <c r="E15" s="7" t="s">
-        <v>240</v>
+      <c r="E15" s="8" t="s">
+        <v>242</v>
       </c>
       <c r="F15" s="0"/>
       <c r="H15" s="0"/>
-      <c r="I15" s="7" t="n">
+      <c r="I15" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="J15" s="7" t="n">
+      <c r="J15" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="K15" s="7"/>
+      <c r="K15" s="8"/>
       <c r="L15" s="0"/>
       <c r="M15" s="0"/>
       <c r="N15" s="0"/>
-      <c r="O15" s="7"/>
+      <c r="O15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>241</v>
+      <c r="A16" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="C16" s="0"/>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>240</v>
-      </c>
       <c r="F16" s="0"/>
-      <c r="H16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="7" t="n">
+      <c r="H16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="J16" s="7" t="n">
+      <c r="J16" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K16" s="0"/>
@@ -2671,483 +2688,483 @@
       <c r="O16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>241</v>
+      <c r="A17" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="C17" s="0"/>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>240</v>
-      </c>
       <c r="F17" s="0"/>
-      <c r="H17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="7" t="n">
+      <c r="H17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="J17" s="7" t="n">
+      <c r="J17" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K17" s="0"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
       <c r="N17" s="0"/>
       <c r="O17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>243</v>
+      <c r="A18" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="D18" s="0"/>
       <c r="F18" s="0"/>
       <c r="H18" s="0"/>
       <c r="I18" s="0"/>
-      <c r="J18" s="7" t="n">
+      <c r="J18" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K18" s="0"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
       <c r="N18" s="0"/>
       <c r="O18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>245</v>
+      <c r="A19" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>247</v>
       </c>
       <c r="F19" s="0"/>
       <c r="H19" s="0"/>
       <c r="I19" s="0"/>
-      <c r="J19" s="7" t="n">
+      <c r="J19" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K19" s="0"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
       <c r="N19" s="0"/>
       <c r="O19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>245</v>
+      <c r="A20" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>247</v>
       </c>
       <c r="F20" s="0"/>
       <c r="H20" s="0"/>
       <c r="I20" s="0"/>
-      <c r="J20" s="7" t="n">
+      <c r="J20" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K20" s="0"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
       <c r="N20" s="0"/>
       <c r="O20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>247</v>
+      <c r="A21" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>249</v>
       </c>
       <c r="F21" s="0"/>
       <c r="H21" s="0"/>
       <c r="I21" s="0"/>
-      <c r="J21" s="7" t="n">
+      <c r="J21" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K21" s="0"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
       <c r="N21" s="0"/>
       <c r="O21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>248</v>
+      <c r="A22" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>250</v>
       </c>
       <c r="F22" s="0"/>
       <c r="H22" s="0"/>
       <c r="I22" s="0"/>
-      <c r="J22" s="7" t="n">
+      <c r="J22" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K22" s="0"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
       <c r="N22" s="0"/>
       <c r="O22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>250</v>
+      <c r="A23" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>252</v>
       </c>
       <c r="F23" s="0"/>
       <c r="H23" s="0"/>
       <c r="I23" s="0"/>
-      <c r="J23" s="7" t="n">
+      <c r="J23" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K23" s="0"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
       <c r="N23" s="0"/>
       <c r="O23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C24" s="7" t="s">
+      <c r="A24" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>251</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>253</v>
       </c>
       <c r="F24" s="0"/>
       <c r="H24" s="0"/>
       <c r="I24" s="0"/>
-      <c r="J24" s="7" t="n">
+      <c r="J24" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K24" s="0"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
       <c r="N24" s="0"/>
       <c r="O24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>252</v>
+      <c r="A25" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>254</v>
       </c>
       <c r="F25" s="0"/>
       <c r="H25" s="0"/>
       <c r="I25" s="0"/>
-      <c r="J25" s="7" t="n">
+      <c r="J25" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
       <c r="N25" s="0"/>
       <c r="O25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>32</v>
+      <c r="A26" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="H26" s="0"/>
       <c r="I26" s="0"/>
-      <c r="J26" s="7" t="n">
+      <c r="J26" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K26" s="0"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
       <c r="N26" s="0"/>
       <c r="O26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>255</v>
+      <c r="A27" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>257</v>
       </c>
       <c r="H27" s="0"/>
       <c r="I27" s="0"/>
-      <c r="J27" s="7" t="n">
+      <c r="J27" s="8" t="n">
         <v>3</v>
       </c>
       <c r="K27" s="0"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
       <c r="N27" s="0"/>
       <c r="O27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>256</v>
+      <c r="A28" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>258</v>
       </c>
       <c r="H28" s="0"/>
       <c r="I28" s="0"/>
-      <c r="J28" s="7" t="n">
+      <c r="J28" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K28" s="0"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
       <c r="N28" s="0"/>
       <c r="O28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>258</v>
+      <c r="A29" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>260</v>
       </c>
       <c r="H29" s="0"/>
       <c r="I29" s="0"/>
-      <c r="J29" s="7" t="n">
+      <c r="J29" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
       <c r="N29" s="0"/>
       <c r="O29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>260</v>
+      <c r="A30" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>262</v>
       </c>
       <c r="H30" s="0"/>
       <c r="I30" s="0"/>
-      <c r="J30" s="7" t="n">
+      <c r="J30" s="8" t="n">
         <v>4</v>
       </c>
       <c r="K30" s="0"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
       <c r="N30" s="0"/>
       <c r="O30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>261</v>
+      <c r="A31" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>263</v>
       </c>
       <c r="H31" s="0"/>
       <c r="I31" s="0"/>
-      <c r="J31" s="7" t="n">
+      <c r="J31" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K31" s="0"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
       <c r="N31" s="0"/>
       <c r="O31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>263</v>
+      <c r="A32" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>265</v>
       </c>
       <c r="H32" s="0"/>
       <c r="I32" s="0"/>
-      <c r="J32" s="7" t="n">
+      <c r="J32" s="8" t="n">
         <v>4</v>
       </c>
       <c r="K32" s="0"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
       <c r="N32" s="0"/>
       <c r="O32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>264</v>
+      <c r="A33" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>266</v>
       </c>
       <c r="H33" s="0"/>
       <c r="I33" s="0"/>
-      <c r="J33" s="7" t="n">
+      <c r="J33" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K33" s="0"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>265</v>
+      <c r="A34" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>267</v>
       </c>
       <c r="H34" s="0"/>
       <c r="I34" s="0"/>
-      <c r="J34" s="7" t="n">
+      <c r="J34" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K34" s="0"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
       <c r="N34" s="0"/>
-      <c r="O34" s="7"/>
+      <c r="O34" s="8"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>266</v>
+      <c r="A35" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>268</v>
       </c>
       <c r="H35" s="0"/>
       <c r="I35" s="0"/>
-      <c r="J35" s="7" t="n">
+      <c r="J35" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K35" s="0"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
       <c r="N35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="I36" s="7" t="n">
+      <c r="A36" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="I36" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="J36" s="7" t="n">
+      <c r="J36" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="J37" s="7" t="n">
+      <c r="A37" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="J37" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L37" s="7"/>
+      <c r="L37" s="8"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="C38" s="7" t="s">
+      <c r="A38" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="J38" s="7" t="n">
+      <c r="C38" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="J38" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L38" s="7"/>
+      <c r="L38" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3161,7 +3178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3171,163 +3188,160 @@
       <selection pane="topLeft" activeCell="AP1" activeCellId="0" sqref="AP1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>16</v>
+      <c r="A1" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-1</v>
@@ -3476,7 +3490,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -3625,7 +3639,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -3774,7 +3788,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -3923,7 +3937,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -4072,7 +4086,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -4221,7 +4235,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -4370,7 +4384,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -4519,7 +4533,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -4668,7 +4682,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -4817,7 +4831,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -4966,7 +4980,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -5115,7 +5129,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -5264,7 +5278,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -5413,7 +5427,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -5562,7 +5576,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -5711,7 +5725,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -5860,7 +5874,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -6009,7 +6023,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -6158,7 +6172,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -6307,7 +6321,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -6456,7 +6470,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -6605,7 +6619,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -6754,7 +6768,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -6903,7 +6917,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -7052,7 +7066,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -7201,7 +7215,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -7350,7 +7364,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -7499,7 +7513,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -7648,7 +7662,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -7797,7 +7811,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -7946,7 +7960,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -8095,7 +8109,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -8244,7 +8258,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -8393,7 +8407,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -8542,7 +8556,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -8691,7 +8705,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -8840,7 +8854,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -8989,7 +9003,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -9138,7 +9152,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -9287,7 +9301,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -9446,7 +9460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -9456,32 +9470,31 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="4" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -9489,10 +9502,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
@@ -9500,10 +9513,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -9511,10 +9524,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1</v>
@@ -9522,10 +9535,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -9533,10 +9546,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -9544,10 +9557,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>115</v>
+        <v>26</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -9555,10 +9568,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -9566,10 +9579,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>117</v>
+        <v>28</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -9577,10 +9590,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -9588,10 +9601,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -9599,10 +9612,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
@@ -9610,10 +9623,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
@@ -9621,10 +9634,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -9632,10 +9645,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
@@ -9643,10 +9656,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -9654,10 +9667,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -9665,10 +9678,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -9676,10 +9689,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -9687,10 +9700,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>128</v>
+        <v>39</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
@@ -9698,10 +9711,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1</v>
@@ -9709,10 +9722,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
@@ -9720,10 +9733,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
@@ -9731,10 +9744,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1</v>
@@ -9742,10 +9755,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>1</v>
@@ -9753,10 +9766,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1</v>
@@ -9764,10 +9777,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>1</v>
@@ -9775,10 +9788,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>1</v>
@@ -9786,10 +9799,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>137</v>
+        <v>48</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>1</v>
@@ -9797,10 +9810,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>1</v>
@@ -9808,10 +9821,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>1</v>
@@ -9819,10 +9832,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>1</v>
@@ -9830,10 +9843,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>0</v>
@@ -9841,10 +9854,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>0</v>
@@ -9852,10 +9865,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>143</v>
+        <v>54</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>1</v>
@@ -9863,10 +9876,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>144</v>
+        <v>55</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>1</v>
@@ -9874,10 +9887,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>145</v>
+        <v>56</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>1</v>
@@ -9885,10 +9898,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>146</v>
+        <v>57</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>1</v>
@@ -9896,10 +9909,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>0</v>
@@ -9907,10 +9920,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0</v>
@@ -9918,7 +9931,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
@@ -9926,7 +9939,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>0</v>
@@ -9934,7 +9947,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>0</v>
@@ -9942,7 +9955,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>0</v>
@@ -9950,7 +9963,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>0</v>
@@ -9958,7 +9971,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>0</v>
@@ -9966,7 +9979,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>0</v>
@@ -9974,7 +9987,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>0</v>
@@ -9992,7 +10005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -10002,35 +10015,34 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="4" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -10038,10 +10050,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -10049,10 +10061,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -10060,10 +10072,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -10071,10 +10083,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -10082,10 +10094,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -10093,10 +10105,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -10104,10 +10116,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -10115,10 +10127,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -10126,10 +10138,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -10137,10 +10149,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -10148,10 +10160,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -10159,10 +10171,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -10170,10 +10182,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -10181,10 +10193,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -10192,10 +10204,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -10203,10 +10215,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -10214,10 +10226,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -10225,10 +10237,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -10236,10 +10248,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -10247,10 +10259,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
@@ -10258,10 +10270,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0</v>
@@ -10269,10 +10281,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>0</v>
@@ -10280,10 +10292,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0</v>
@@ -10291,10 +10303,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>179</v>
+        <v>88</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0</v>
@@ -10302,10 +10314,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0</v>
@@ -10313,10 +10325,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>181</v>
+        <v>90</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0</v>
@@ -10324,10 +10336,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>182</v>
+        <v>91</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0</v>
@@ -10335,10 +10347,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>183</v>
+        <v>92</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>186</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0</v>
@@ -10346,10 +10358,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>184</v>
+        <v>93</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>187</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0</v>
@@ -10357,10 +10369,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>185</v>
+        <v>94</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0</v>
@@ -10368,10 +10380,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>186</v>
+        <v>95</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>0</v>
@@ -10379,10 +10391,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>187</v>
+        <v>96</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>0</v>
@@ -10390,10 +10402,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>0</v>
@@ -10401,10 +10413,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>0</v>
@@ -10412,10 +10424,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>0</v>
@@ -10423,10 +10435,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -10441,7 +10453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -10451,214 +10463,211 @@
       <selection pane="topLeft" activeCell="L29" activeCellId="0" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -10673,7 +10682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -10683,214 +10692,211 @@
       <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -10905,7 +10911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -10915,29 +10921,28 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="4" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-5</v>
@@ -10948,7 +10953,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B3" s="0" t="n">
         <f aca="false">-26.4-0.6</f>
@@ -10961,20 +10966,20 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="B4" s="5" t="n">
         <f aca="false">-17.3-0.9</f>
         <v>-18.2</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="5" t="n">
         <f aca="false">-17.3+0.9</f>
         <v>-16.4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-5</v>
@@ -10985,7 +10990,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-5</v>
@@ -10996,7 +11001,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">-10.1-6.4</f>
@@ -11009,7 +11014,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-5</v>
@@ -11020,7 +11025,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-5</v>
@@ -11031,7 +11036,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B10" s="0" t="n">
         <f aca="false">-7.6-6.9</f>
@@ -11044,7 +11049,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">-21.8-3.9</f>
@@ -11057,7 +11062,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">-116.1-8.5</f>
@@ -11070,7 +11075,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B13" s="0" t="n">
         <f aca="false">-66.5-6.2</f>
@@ -11083,7 +11088,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B14" s="0" t="n">
         <f aca="false">-2.3-2.6</f>
@@ -11096,7 +11101,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B15" s="0" t="n">
         <f aca="false">-20.9-3.3</f>
@@ -11109,7 +11114,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B16" s="0" t="n">
         <f aca="false">11.2-6.3</f>
@@ -11122,7 +11127,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B17" s="0" t="n">
         <f aca="false">-1.9-1.5</f>
@@ -11135,7 +11140,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B18" s="0" t="n">
         <f aca="false">-3.4-2.3</f>
@@ -11148,7 +11153,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B19" s="0" t="n">
         <f aca="false">-3.8-3.8</f>
@@ -11161,7 +11166,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B20" s="0" t="n">
         <f aca="false">-10-3.8</f>
@@ -11174,7 +11179,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B21" s="0" t="n">
         <f aca="false">-0.7-2.8</f>
@@ -11187,7 +11192,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B22" s="0" t="n">
         <f aca="false">-43.1-5.1</f>
@@ -11200,7 +11205,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B23" s="0" t="n">
         <f aca="false">15.5-4.1</f>
@@ -11213,7 +11218,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B24" s="0" t="n">
         <f aca="false">2.5-0.8</f>
@@ -11226,7 +11231,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B25" s="0" t="n">
         <f aca="false">-11.4-1.4</f>
@@ -11239,7 +11244,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B26" s="0" t="n">
         <f aca="false">-19.8-1</f>
@@ -11252,7 +11257,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B27" s="0" t="n">
         <f aca="false">-5.5-1.1</f>
@@ -11265,7 +11270,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B28" s="0" t="n">
         <f aca="false">7.8-0.8</f>
@@ -11278,7 +11283,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B29" s="0" t="n">
         <f aca="false">-18.5-0.9</f>
@@ -11291,7 +11296,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B30" s="0" t="n">
         <f aca="false">4.2-0.7</f>
@@ -11304,7 +11309,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B31" s="0" t="n">
         <f aca="false">-4.1-0.6</f>
@@ -11317,7 +11322,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B32" s="0" t="n">
         <f aca="false">-27.7-0.8</f>
@@ -11330,7 +11335,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>-5</v>
@@ -11341,7 +11346,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>-5</v>
@@ -11362,7 +11367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -11372,29 +11377,28 @@
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="4" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -11405,7 +11409,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -11416,7 +11420,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>9.35806519989021E-005</v>
@@ -11427,7 +11431,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -11438,7 +11442,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1.33019869888442E-005</v>
@@ -11449,7 +11453,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -11460,7 +11464,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.000188126472700168</v>
@@ -11471,7 +11475,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -11482,7 +11486,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -11493,7 +11497,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -11504,7 +11508,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>5.24113154902746E-006</v>
@@ -11515,7 +11519,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -11526,7 +11530,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -11537,7 +11541,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -11548,7 +11552,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -11559,7 +11563,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>4.78647895557551E-007</v>
@@ -11570,7 +11574,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1.08578172251465E-005</v>
@@ -11581,7 +11585,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -11592,7 +11596,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -11603,7 +11607,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -11614,7 +11618,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -11625,7 +11629,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1.21731956073935E-005</v>
@@ -11636,7 +11640,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>1.56386773727797E-006</v>
@@ -11647,7 +11651,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -11658,7 +11662,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>2.13E-013</v>
@@ -11669,7 +11673,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>2.82926534545702E-005</v>
@@ -11680,7 +11684,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -11691,7 +11695,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>3.80512459944155E-005</v>
@@ -11702,7 +11706,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -11713,7 +11717,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>3.60939376063701E-005</v>
@@ -11724,7 +11728,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>2.72093271819032E-006</v>
@@ -11735,7 +11739,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>1.9530546875E-005</v>
@@ -11746,9 +11750,9 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="4" t="n">
+        <v>52</v>
+      </c>
+      <c r="B34" s="5" t="n">
         <v>4.33178204203296E-005</v>
       </c>
       <c r="C34" s="0" t="n">
@@ -11757,7 +11761,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>6.51619851996748E-007</v>
@@ -11768,7 +11772,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -11779,7 +11783,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>2.13E-013</v>
@@ -11790,7 +11794,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>2.13E-013</v>
@@ -11801,7 +11805,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>6.8444481038267E-005</v>
@@ -11812,7 +11816,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -11823,7 +11827,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -11844,39 +11848,38 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="4" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B2" s="0" t="n">
         <f aca="false">B3+B12</f>
@@ -11888,7 +11891,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>600</v>
@@ -11899,7 +11902,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B4" s="0" t="n">
         <f aca="false">B14-B24</f>
@@ -11911,7 +11914,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -11922,7 +11925,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B6" s="0" t="n">
         <f aca="false">4.79*10^3</f>
@@ -11935,7 +11938,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">4.79*10^3</f>
@@ -11948,7 +11951,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -11959,7 +11962,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">0.72*10^3</f>
@@ -11972,7 +11975,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B10" s="0" t="n">
         <f aca="false">0.72*10^3</f>
@@ -11985,7 +11988,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">0.72*10^3</f>
@@ -11998,7 +12001,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">5.51*10^3</f>
@@ -12011,7 +12014,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B13" s="0" t="n">
         <f aca="false">0.72*10^3</f>
@@ -12024,7 +12027,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B14" s="0" t="n">
         <f aca="false">1.17*10^3</f>
@@ -12037,7 +12040,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B15" s="0" t="n">
         <f aca="false">1.17*10^3</f>
@@ -12050,7 +12053,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B16" s="0" t="n">
         <f aca="false">0.59*10^3</f>
@@ -12063,7 +12066,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B17" s="0" t="n">
         <f aca="false">0.44*10^3</f>
@@ -12076,7 +12079,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B18" s="0" t="n">
         <f aca="false">0.15*10^3</f>
@@ -12089,7 +12092,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B19" s="0" t="n">
         <f aca="false">0.15*10^3</f>
@@ -12102,7 +12105,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B20" s="0" t="n">
         <f aca="false">0.01*10^3</f>
@@ -12115,7 +12118,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B21" s="0" t="n">
         <f aca="false">0.15*10^3</f>
@@ -12128,7 +12131,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B22" s="0" t="n">
         <f aca="false">6.11*10^ 3</f>
@@ -12141,7 +12144,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B23" s="0" t="n">
         <f aca="false">6.11*10^ 3</f>
@@ -12154,7 +12157,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B24" s="0" t="n">
         <f aca="false">0.57*10^3</f>
@@ -12167,7 +12170,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B25" s="0" t="n">
         <f aca="false">0.46*10^3</f>
@@ -12180,7 +12183,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B26" s="0" t="n">
         <f aca="false">0.46*10^3</f>
@@ -12193,7 +12196,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B27" s="0" t="n">
         <f aca="false">0.46*10^3</f>
@@ -12206,7 +12209,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B28" s="0" t="n">
         <f aca="false">5.11*10^3</f>
@@ -12219,7 +12222,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B29" s="0" t="n">
         <f aca="false">5.11*10^3</f>
@@ -12232,7 +12235,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B30" s="0" t="n">
         <f aca="false">4.36*10^3</f>
@@ -12245,7 +12248,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B31" s="0" t="n">
         <f aca="false">4.36*10^3</f>
@@ -12258,7 +12261,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B32" s="0" t="n">
         <f aca="false">3.89*10^3</f>
@@ -12271,7 +12274,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B33" s="0" t="n">
         <f aca="false">B23+B32</f>
@@ -12283,7 +12286,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B34" s="0" t="n">
         <f aca="false">B31-B32</f>
@@ -12295,7 +12298,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B35" s="0" t="n">
         <f aca="false">B29-B30</f>
@@ -12307,7 +12310,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B36" s="0" t="n">
         <f aca="false">SUM(B7,B11,B14)-SUM(B16,B22)</f>
@@ -12319,7 +12322,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B37" s="0" t="n">
         <f aca="false">B16</f>
@@ -12331,7 +12334,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B38" s="0" t="n">
         <f aca="false">B17-B19</f>
@@ -12343,7 +12346,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B39" s="0" t="n">
         <f aca="false">B18-SUM(B19:B20)</f>
@@ -12355,7 +12358,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B40" s="0" t="n">
         <f aca="false">SUM(B19:B20,B23)-SUM(B21,B28,B26,B27)</f>
@@ -12367,7 +12370,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B41" s="0" t="n">
         <f aca="false">B21-B20</f>
@@ -12379,7 +12382,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B42" s="0" t="n">
         <f aca="false">SUM(B25,B21,B20)-B24</f>
